--- a/Prototypes/Barley/Observations/AustralianObserved.xlsx
+++ b/Prototypes/Barley/Observations/AustralianObserved.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
@@ -16,6 +16,9 @@
     <sheet name="WellcampData" sheetId="5" r:id="rId7"/>
     <sheet name="HRSData" sheetId="4" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Observed!$B$1:$B$917</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3884" uniqueCount="281">
   <si>
     <t>TOS</t>
   </si>
@@ -411,9 +414,6 @@
   </si>
   <si>
     <t>Barley.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Barley.Grain.GrainSize</t>
   </si>
   <si>
     <t>HermitageRSIrrDD</t>
@@ -864,6 +864,21 @@
   </si>
   <si>
     <t>grainno_perear</t>
+  </si>
+  <si>
+    <t>Barley.Phenology.Stage</t>
+  </si>
+  <si>
+    <t>Barley.Structure.Height</t>
+  </si>
+  <si>
+    <t>Barley.Spike.HeadNumber</t>
+  </si>
+  <si>
+    <t>Barley.Grain.Size</t>
+  </si>
+  <si>
+    <t>Barley.Grain.Number</t>
   </si>
 </sst>
 </file>
@@ -2832,11 +2847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="433451688"/>
-        <c:axId val="433452080"/>
+        <c:axId val="395454264"/>
+        <c:axId val="397202168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="433451688"/>
+        <c:axId val="395454264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +2894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433452080"/>
+        <c:crossAx val="397202168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2887,7 +2902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433452080"/>
+        <c:axId val="397202168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2938,7 +2953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="433451688"/>
+        <c:crossAx val="395454264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26865,28 +26880,28 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>102</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>247</v>
-      </c>
       <c r="H1" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -27071,10 +27086,10 @@
         <v>0.35939393471617997</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -27103,7 +27118,7 @@
         <v>0.34992718731275002</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>102</v>
@@ -27171,7 +27186,7 @@
         <v>114</v>
       </c>
       <c r="M10" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N10" s="9">
         <v>0.33389618913614</v>
@@ -27233,7 +27248,7 @@
         <v>0.32946398654971898</v>
       </c>
       <c r="M11" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N11" s="9">
         <v>0.40108482560562397</v>
@@ -27295,7 +27310,7 @@
         <v>0.17111298034641201</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N12" s="9">
         <v>0.34114330408592902</v>
@@ -27357,7 +27372,7 @@
         <v>0.31737773274395198</v>
       </c>
       <c r="M13" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N13" s="9">
         <v>0.27484662876780397</v>
@@ -27419,7 +27434,7 @@
         <v>0.28163749671565302</v>
       </c>
       <c r="M14" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N14" s="9">
         <v>0.21438804126575201</v>
@@ -27481,7 +27496,7 @@
         <v>0.31304281722419403</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N15" s="9">
         <v>0.19660297981534502</v>
@@ -27543,7 +27558,7 @@
         <v>0.32211434372467301</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N16" s="9">
         <v>0.17026861657942199</v>
@@ -27605,7 +27620,7 @@
         <v>0.32941394067750401</v>
       </c>
       <c r="M17" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N17" s="9">
         <v>0.20203482946770202</v>
@@ -27667,7 +27682,7 @@
         <v>0.28954152670814298</v>
       </c>
       <c r="M18" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N18" s="9">
         <v>0.17835659961766798</v>
@@ -27729,7 +27744,7 @@
         <v>0.26552467698449</v>
       </c>
       <c r="M19" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N19" s="9">
         <v>0.16741833670817599</v>
@@ -27791,7 +27806,7 @@
         <v>0.23793844777995801</v>
       </c>
       <c r="M20" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N20" s="9">
         <v>0.16250843316352301</v>
@@ -27856,7 +27871,7 @@
         <v>115</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N21" s="9">
         <v>0.33071467793285503</v>
@@ -27918,7 +27933,7 @@
         <v>0.20478618331927601</v>
       </c>
       <c r="M22" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N22" s="9">
         <v>0.39294304347058051</v>
@@ -27980,7 +27995,7 @@
         <v>0.31046020318476802</v>
       </c>
       <c r="M23" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N23" s="9">
         <v>0.32901227821197249</v>
@@ -28042,7 +28057,7 @@
         <v>0.29172407839445202</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N24" s="9">
         <v>0.26668864455611652</v>
@@ -28104,7 +28119,7 @@
         <v>0.31150022379685299</v>
       </c>
       <c r="M25" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N25" s="9">
         <v>0.21745972754846349</v>
@@ -28166,7 +28181,7 @@
         <v>0.32623798094044298</v>
       </c>
       <c r="M26" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N26" s="9">
         <v>0.37131303252120995</v>
@@ -28228,7 +28243,7 @@
         <v>0.33807749004563598</v>
       </c>
       <c r="M27" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N27" s="9">
         <v>0.27841651785065347</v>
@@ -28290,7 +28305,7 @@
         <v>0.33888359592197098</v>
       </c>
       <c r="M28" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N28" s="9">
         <v>0.34629059355876002</v>
@@ -28352,7 +28367,7 @@
         <v>0.33912706941574999</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N29" s="9">
         <v>0.37913167439466899</v>
@@ -28414,7 +28429,7 @@
         <v>0.29808638539278698</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N30" s="9">
         <v>0.37875802879113801</v>
@@ -28476,7 +28491,7 @@
         <v>0.12993721043110401</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N31" s="9">
         <v>0.33488357183165751</v>
@@ -28538,7 +28553,7 @@
         <v>0.18093370874227999</v>
       </c>
       <c r="M32" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N32" s="9">
         <v>0.41450109139074154</v>
@@ -28600,7 +28615,7 @@
         <v>0.302479932811408</v>
       </c>
       <c r="M33" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N33" s="9">
         <v>0.33912943236037651</v>
@@ -28665,7 +28680,7 @@
         <v>116</v>
       </c>
       <c r="M34" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N34" s="9">
         <v>0.29249599715413999</v>
@@ -28727,7 +28742,7 @@
         <v>0.30777039367115999</v>
       </c>
       <c r="M35" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N35" s="9">
         <v>0.37253302217343598</v>
@@ -28789,7 +28804,7 @@
         <v>0.32037065778710799</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N36" s="9">
         <v>0.30824930093664205</v>
@@ -28851,7 +28866,7 @@
         <v>0.335269936739647</v>
       </c>
       <c r="M37" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N37" s="9">
         <v>0.34329484649097297</v>
@@ -28913,7 +28928,7 @@
         <v>0.338151622027205</v>
       </c>
       <c r="M38" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N38" s="9">
         <v>0.34269862575062204</v>
@@ -28975,7 +28990,7 @@
         <v>0.33552776110496502</v>
       </c>
       <c r="M39" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N39" s="9">
         <v>0.40221798574416601</v>
@@ -29037,7 +29052,7 @@
         <v>0.29529726247143001</v>
       </c>
       <c r="M40" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N40" s="9">
         <v>0.275228928607817</v>
@@ -29099,7 +29114,7 @@
         <v>0.17048680483121501</v>
       </c>
       <c r="M41" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N41" s="9">
         <v>0.35793571306896999</v>
@@ -29161,7 +29176,7 @@
         <v>0.14723436197828799</v>
       </c>
       <c r="M42" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N42" s="9">
         <v>0.37612944300004902</v>
@@ -29223,7 +29238,7 @@
         <v>0.27732775259143999</v>
       </c>
       <c r="M43" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N43" s="9">
         <v>0.35355156065794802</v>
@@ -29285,7 +29300,7 @@
         <v>0.28747431320970601</v>
       </c>
       <c r="M44" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N44" s="9">
         <v>0.325072256436507</v>
@@ -29347,7 +29362,7 @@
         <v>0.30699581054081398</v>
       </c>
       <c r="M45" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N45" s="9">
         <v>0.40723102880120199</v>
@@ -47795,18 +47810,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL948"/>
+  <dimension ref="A1:AM948"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C837" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D901" sqref="D901"/>
+      <selection pane="bottomRight" activeCell="BB1" sqref="BB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
     <col min="3" max="6" width="8.85546875" style="3"/>
     <col min="7" max="7" width="31.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -47822,7 +47837,7 @@
     <col min="36" max="36" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -47857,7 +47872,7 @@
         <v>99</v>
       </c>
       <c r="L1" t="s">
-        <v>103</v>
+        <v>276</v>
       </c>
       <c r="M1" t="s">
         <v>104</v>
@@ -47872,13 +47887,13 @@
         <v>119</v>
       </c>
       <c r="Q1" t="s">
-        <v>107</v>
+        <v>277</v>
       </c>
       <c r="R1" t="s">
         <v>121</v>
       </c>
       <c r="S1" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c r="T1" t="s">
         <v>122</v>
@@ -47890,55 +47905,58 @@
         <v>125</v>
       </c>
       <c r="W1" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK1" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL1" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="Y1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="AK1" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM1" s="40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
         <f>"MCVP"&amp;F2&amp;"Cv"&amp;C2&amp;"TOS"&amp;D2</f>
         <v>MCVPBirchipCvBaudinTOS13-may</v>
@@ -47971,7 +47989,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A66" si="0">"MCVP"&amp;F3&amp;"Cv"&amp;C3&amp;"TOS"&amp;D3</f>
         <v>MCVPBirchipCvBulokeTOS13-may</v>
@@ -48004,7 +48022,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvCapstanTOS13-may</v>
@@ -48037,7 +48055,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvCommanderTOS13-may</v>
@@ -48070,7 +48088,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvFleetTOS13-may</v>
@@ -48103,7 +48121,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvHindmarshTOS13-may</v>
@@ -48136,7 +48154,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvKeelTOS13-may</v>
@@ -48169,7 +48187,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvOxfordTOS13-may</v>
@@ -48202,7 +48220,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvBaudinTOS13-may</v>
@@ -48235,7 +48253,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvBulokeTOS13-may</v>
@@ -48268,7 +48286,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvCapstanTOS13-may</v>
@@ -48301,7 +48319,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvCommanderTOS13-may</v>
@@ -48334,7 +48352,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvFleetTOS13-may</v>
@@ -48367,7 +48385,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvHindmarshTOS13-may</v>
@@ -48400,7 +48418,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>MCVPBirchipCvKeelTOS13-may</v>
@@ -67931,7 +67949,7 @@
     </row>
     <row r="719" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A719" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B719" s="11">
         <v>33424</v>
@@ -67945,7 +67963,7 @@
     </row>
     <row r="720" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A720" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B720" s="11">
         <v>33441</v>
@@ -67980,7 +67998,7 @@
     </row>
     <row r="721" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A721" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B721" s="11">
         <v>33455</v>
@@ -67994,7 +68012,7 @@
     </row>
     <row r="722" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A722" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B722" s="11">
         <v>33456</v>
@@ -68029,7 +68047,7 @@
     </row>
     <row r="723" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A723" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B723" s="11">
         <v>33483</v>
@@ -68064,7 +68082,7 @@
     </row>
     <row r="724" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A724" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B724" s="11">
         <v>33504</v>
@@ -68102,7 +68120,7 @@
     </row>
     <row r="725" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A725" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B725" s="11">
         <v>33510</v>
@@ -68116,7 +68134,7 @@
     </row>
     <row r="726" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A726" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B726" s="11">
         <v>33512</v>
@@ -68154,7 +68172,7 @@
     </row>
     <row r="727" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A727" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B727" s="11">
         <v>33518</v>
@@ -68192,7 +68210,7 @@
     </row>
     <row r="728" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A728" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B728" s="11">
         <v>33525</v>
@@ -68230,7 +68248,7 @@
     </row>
     <row r="729" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A729" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B729" s="11">
         <v>33532</v>
@@ -68268,7 +68286,7 @@
     </row>
     <row r="730" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A730" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B730" s="11">
         <v>33539</v>
@@ -68306,7 +68324,7 @@
     </row>
     <row r="731" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A731" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B731" s="11">
         <v>33546</v>
@@ -68341,7 +68359,7 @@
     </row>
     <row r="732" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A732" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B732" s="11">
         <v>33553</v>
@@ -68349,6 +68367,9 @@
       <c r="C732" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="G732" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="L732">
         <v>10</v>
       </c>
@@ -68373,7 +68394,7 @@
     </row>
     <row r="733" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A733" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B733" s="11">
         <v>33424</v>
@@ -68387,7 +68408,7 @@
     </row>
     <row r="734" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A734" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B734" s="11">
         <v>33441</v>
@@ -68422,7 +68443,7 @@
     </row>
     <row r="735" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A735" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B735" s="11">
         <v>33455</v>
@@ -68436,7 +68457,7 @@
     </row>
     <row r="736" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A736" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B736" s="11">
         <v>33456</v>
@@ -68471,7 +68492,7 @@
     </row>
     <row r="737" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A737" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B737" s="11">
         <v>33483</v>
@@ -68506,7 +68527,7 @@
     </row>
     <row r="738" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A738" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B738" s="11">
         <v>33504</v>
@@ -68544,7 +68565,7 @@
     </row>
     <row r="739" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A739" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B739" s="11">
         <v>33511</v>
@@ -68558,7 +68579,7 @@
     </row>
     <row r="740" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A740" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B740" s="11">
         <v>33512</v>
@@ -68596,7 +68617,7 @@
     </row>
     <row r="741" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A741" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B741" s="11">
         <v>33518</v>
@@ -68634,7 +68655,7 @@
     </row>
     <row r="742" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A742" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B742" s="11">
         <v>33525</v>
@@ -68672,7 +68693,7 @@
     </row>
     <row r="743" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A743" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B743" s="11">
         <v>33532</v>
@@ -68710,7 +68731,7 @@
     </row>
     <row r="744" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A744" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B744" s="11">
         <v>33539</v>
@@ -68748,7 +68769,7 @@
     </row>
     <row r="745" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A745" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B745" s="11">
         <v>33546</v>
@@ -68783,7 +68804,7 @@
     </row>
     <row r="746" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A746" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B746" s="11">
         <v>33553</v>
@@ -68815,7 +68836,7 @@
     </row>
     <row r="747" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A747" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B747" s="11">
         <v>33562</v>
@@ -68823,6 +68844,9 @@
       <c r="C747" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="G747" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="L747">
         <v>10</v>
       </c>
@@ -68844,7 +68868,7 @@
     </row>
     <row r="748" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A748" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B748" s="11">
         <v>33424</v>
@@ -68858,7 +68882,7 @@
     </row>
     <row r="749" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A749" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B749" s="11">
         <v>33441</v>
@@ -68893,7 +68917,7 @@
     </row>
     <row r="750" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A750" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B750" s="11">
         <v>33455</v>
@@ -68907,7 +68931,7 @@
     </row>
     <row r="751" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A751" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B751" s="11">
         <v>33456</v>
@@ -68942,7 +68966,7 @@
     </row>
     <row r="752" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A752" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B752" s="11">
         <v>33483</v>
@@ -68977,7 +69001,7 @@
     </row>
     <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B753" s="11">
         <v>33504</v>
@@ -69015,7 +69039,7 @@
     </row>
     <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B754" s="11">
         <v>33512</v>
@@ -69053,7 +69077,7 @@
     </row>
     <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B755" s="11">
         <v>33513</v>
@@ -69067,7 +69091,7 @@
     </row>
     <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B756" s="11">
         <v>33518</v>
@@ -69105,7 +69129,7 @@
     </row>
     <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B757" s="11">
         <v>33525</v>
@@ -69143,7 +69167,7 @@
     </row>
     <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B758" s="11">
         <v>33532</v>
@@ -69181,7 +69205,7 @@
     </row>
     <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B759" s="11">
         <v>33539</v>
@@ -69219,7 +69243,7 @@
     </row>
     <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B760" s="11">
         <v>33546</v>
@@ -69254,7 +69278,7 @@
     </row>
     <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B761" s="11">
         <v>33553</v>
@@ -69286,7 +69310,7 @@
     </row>
     <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B762" s="11">
         <v>33560</v>
@@ -69294,6 +69318,9 @@
       <c r="C762" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="G762" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="L762">
         <v>10</v>
       </c>
@@ -69315,7 +69342,7 @@
     </row>
     <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B763" s="23">
         <v>34155</v>
@@ -69332,7 +69359,7 @@
     </row>
     <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B764" s="23">
         <v>34158</v>
@@ -69349,7 +69376,7 @@
     </row>
     <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B765" s="23">
         <v>34165</v>
@@ -69366,7 +69393,7 @@
     </row>
     <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B766" s="23">
         <v>34169</v>
@@ -69383,7 +69410,7 @@
     </row>
     <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B767" s="23">
         <v>34172</v>
@@ -69400,7 +69427,7 @@
     </row>
     <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B768" s="23">
         <v>34174</v>
@@ -69417,7 +69444,7 @@
     </row>
     <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B769" s="23">
         <v>34193</v>
@@ -69436,7 +69463,7 @@
     </row>
     <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B770" s="23">
         <v>34207</v>
@@ -69453,7 +69480,7 @@
     </row>
     <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B771" s="23">
         <v>34214</v>
@@ -69470,7 +69497,7 @@
     </row>
     <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B772" s="23">
         <v>34243</v>
@@ -69487,7 +69514,7 @@
     </row>
     <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B773" s="23">
         <v>34248</v>
@@ -69504,7 +69531,7 @@
     </row>
     <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B774" s="23">
         <v>34261</v>
@@ -69521,7 +69548,7 @@
     </row>
     <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B775" s="23">
         <v>34262</v>
@@ -69538,7 +69565,7 @@
     </row>
     <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B776" s="23">
         <v>34267</v>
@@ -69553,7 +69580,7 @@
     </row>
     <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B777" s="23">
         <v>34274</v>
@@ -69568,7 +69595,7 @@
     </row>
     <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B778" s="23">
         <v>34275</v>
@@ -69585,7 +69612,7 @@
     </row>
     <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B779" s="23">
         <v>34281</v>
@@ -69600,7 +69627,7 @@
     </row>
     <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B780" s="23">
         <v>34288</v>
@@ -69615,7 +69642,7 @@
     </row>
     <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B781" s="23">
         <v>34289</v>
@@ -69632,7 +69659,7 @@
     </row>
     <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B782" s="23">
         <v>34295</v>
@@ -69649,7 +69676,7 @@
     </row>
     <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B783" s="23">
         <v>34302</v>
@@ -69664,7 +69691,7 @@
     </row>
     <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B784" s="23">
         <v>34309</v>
@@ -69679,7 +69706,7 @@
     </row>
     <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B785" s="23">
         <v>34316</v>
@@ -69694,10 +69721,13 @@
     </row>
     <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B786" s="23">
         <v>34324</v>
+      </c>
+      <c r="G786" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L786" s="9">
         <v>10</v>
@@ -69715,7 +69745,7 @@
     </row>
     <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B787" s="30">
         <v>32997</v>
@@ -69732,7 +69762,7 @@
     </row>
     <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B788" s="30">
         <v>33003</v>
@@ -69753,7 +69783,7 @@
     </row>
     <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B789" s="30">
         <v>33010</v>
@@ -69776,7 +69806,7 @@
     </row>
     <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B790" s="30">
         <v>33017</v>
@@ -69797,7 +69827,7 @@
     </row>
     <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B791" s="30">
         <v>33038</v>
@@ -69818,7 +69848,7 @@
     </row>
     <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B792" s="30">
         <v>33052</v>
@@ -69839,7 +69869,7 @@
     </row>
     <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B793" s="30">
         <v>33105</v>
@@ -69856,7 +69886,7 @@
     </row>
     <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B794" s="30">
         <v>33107</v>
@@ -69877,7 +69907,7 @@
     </row>
     <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B795" s="30">
         <v>33140</v>
@@ -69898,10 +69928,13 @@
     </row>
     <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B796" s="30">
         <v>33169</v>
+      </c>
+      <c r="G796" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L796" s="9">
         <v>10</v>
@@ -69921,7 +69954,7 @@
     </row>
     <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B797" s="30">
         <v>33040</v>
@@ -69938,7 +69971,7 @@
     </row>
     <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B798" s="30">
         <v>33050</v>
@@ -69957,7 +69990,7 @@
     </row>
     <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B799" s="30">
         <v>33063</v>
@@ -69978,7 +70011,7 @@
     </row>
     <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B800" s="30">
         <v>33067</v>
@@ -69995,7 +70028,7 @@
     </row>
     <row r="801" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A801" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B801" s="30">
         <v>33078</v>
@@ -70016,7 +70049,7 @@
     </row>
     <row r="802" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A802" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B802" s="30">
         <v>33105</v>
@@ -70037,7 +70070,7 @@
     </row>
     <row r="803" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A803" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B803" s="30">
         <v>33126</v>
@@ -70060,7 +70093,7 @@
     </row>
     <row r="804" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A804" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B804" s="30">
         <v>33140</v>
@@ -70083,10 +70116,13 @@
     </row>
     <row r="805" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A805" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B805" s="30">
         <v>33191</v>
+      </c>
+      <c r="G805" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L805" s="9">
         <v>10</v>
@@ -70106,7 +70142,7 @@
     </row>
     <row r="806" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A806" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B806" s="30">
         <v>33106</v>
@@ -70123,7 +70159,7 @@
     </row>
     <row r="807" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A807" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B807" s="30">
         <v>33119</v>
@@ -70144,7 +70180,7 @@
     </row>
     <row r="808" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A808" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B808" s="30">
         <v>33124</v>
@@ -70161,7 +70197,7 @@
     </row>
     <row r="809" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A809" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B809" s="30">
         <v>33132</v>
@@ -70182,7 +70218,7 @@
     </row>
     <row r="810" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A810" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B810" s="30">
         <v>33154</v>
@@ -70203,7 +70239,7 @@
     </row>
     <row r="811" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A811" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B811" s="30">
         <v>33164</v>
@@ -70226,7 +70262,7 @@
     </row>
     <row r="812" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A812" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B812" s="30">
         <v>33182</v>
@@ -70249,7 +70285,7 @@
     </row>
     <row r="813" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A813" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B813" s="30">
         <v>33202</v>
@@ -70270,10 +70306,13 @@
     </row>
     <row r="814" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A814" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B814" s="30">
         <v>33209</v>
+      </c>
+      <c r="G814" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L814" s="9">
         <v>10</v>
@@ -70293,7 +70332,7 @@
     </row>
     <row r="815" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A815" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B815" s="35">
         <v>32221</v>
@@ -70309,7 +70348,7 @@
     </row>
     <row r="816" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A816" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B816" s="35">
         <v>32255</v>
@@ -70325,7 +70364,7 @@
     </row>
     <row r="817" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A817" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B817" s="35">
         <v>32303</v>
@@ -70343,7 +70382,7 @@
     </row>
     <row r="818" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A818" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B818" s="35">
         <v>32308</v>
@@ -70359,10 +70398,13 @@
     </row>
     <row r="819" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A819" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B819" s="35">
         <v>32387</v>
+      </c>
+      <c r="G819" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L819" s="9">
         <v>10</v>
@@ -70379,7 +70421,7 @@
     </row>
     <row r="820" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A820" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B820" s="35">
         <v>32221</v>
@@ -70395,7 +70437,7 @@
     </row>
     <row r="821" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A821" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B821" s="35">
         <v>32255</v>
@@ -70415,7 +70457,7 @@
     </row>
     <row r="822" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A822" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B822" s="35">
         <v>32303</v>
@@ -70433,10 +70475,13 @@
     </row>
     <row r="823" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A823" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B823" s="35">
         <v>32387</v>
+      </c>
+      <c r="G823" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L823" s="9">
         <v>7</v>
@@ -70453,7 +70498,7 @@
     </row>
     <row r="824" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A824" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B824" s="35">
         <v>32403</v>
@@ -70469,7 +70514,7 @@
     </row>
     <row r="825" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A825" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B825" s="35">
         <v>32221</v>
@@ -70485,7 +70530,7 @@
     </row>
     <row r="826" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A826" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B826" s="35">
         <v>32255</v>
@@ -70501,7 +70546,7 @@
     </row>
     <row r="827" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A827" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B827" s="35">
         <v>32303</v>
@@ -70519,10 +70564,13 @@
     </row>
     <row r="828" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A828" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B828" s="35">
         <v>32387</v>
+      </c>
+      <c r="G828" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L828" s="9">
         <v>7</v>
@@ -70539,7 +70587,7 @@
     </row>
     <row r="829" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A829" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B829" s="35">
         <v>32402</v>
@@ -70555,7 +70603,7 @@
     </row>
     <row r="830" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A830" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B830" s="35">
         <v>32259</v>
@@ -70571,7 +70619,7 @@
     </row>
     <row r="831" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A831" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B831" s="35">
         <v>32284</v>
@@ -70587,7 +70635,7 @@
     </row>
     <row r="832" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A832" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B832" s="35">
         <v>32343</v>
@@ -70605,7 +70653,7 @@
     </row>
     <row r="833" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A833" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B833" s="35">
         <v>32347</v>
@@ -70621,10 +70669,13 @@
     </row>
     <row r="834" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A834" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B834" s="35">
         <v>32406</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L834" s="9">
         <v>10</v>
@@ -70641,7 +70692,7 @@
     </row>
     <row r="835" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A835" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B835" s="35">
         <v>32259</v>
@@ -70657,7 +70708,7 @@
     </row>
     <row r="836" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A836" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B836" s="35">
         <v>32284</v>
@@ -70673,7 +70724,7 @@
     </row>
     <row r="837" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A837" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B837" s="35">
         <v>32288</v>
@@ -70691,7 +70742,7 @@
     </row>
     <row r="838" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A838" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B838" s="35">
         <v>32338</v>
@@ -70707,7 +70758,7 @@
     </row>
     <row r="839" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A839" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B839" s="35">
         <v>32343</v>
@@ -70725,10 +70776,13 @@
     </row>
     <row r="840" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A840" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B840" s="35">
         <v>32406</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L840" s="9">
         <v>10</v>
@@ -70745,7 +70799,7 @@
     </row>
     <row r="841" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A841" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B841" s="35">
         <v>32259</v>
@@ -70761,7 +70815,7 @@
     </row>
     <row r="842" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A842" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B842" s="35">
         <v>32284</v>
@@ -70777,7 +70831,7 @@
     </row>
     <row r="843" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A843" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B843" s="35">
         <v>32337</v>
@@ -70795,7 +70849,7 @@
     </row>
     <row r="844" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A844" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B844" s="35">
         <v>32342</v>
@@ -70811,10 +70865,13 @@
     </row>
     <row r="845" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A845" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B845" s="35">
         <v>32406</v>
+      </c>
+      <c r="G845" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L845" s="9">
         <v>10</v>
@@ -70831,7 +70888,7 @@
     </row>
     <row r="846" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A846" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B846" s="35">
         <v>32282</v>
@@ -70847,7 +70904,7 @@
     </row>
     <row r="847" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A847" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B847" s="35">
         <v>32307</v>
@@ -70863,7 +70920,7 @@
     </row>
     <row r="848" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A848" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B848" s="35">
         <v>32370</v>
@@ -70881,7 +70938,7 @@
     </row>
     <row r="849" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A849" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B849" s="35">
         <v>32371</v>
@@ -70897,10 +70954,13 @@
     </row>
     <row r="850" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A850" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B850" s="35">
         <v>32420</v>
+      </c>
+      <c r="G850" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L850" s="9">
         <v>10</v>
@@ -70917,7 +70977,7 @@
     </row>
     <row r="851" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A851" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B851" s="35">
         <v>32282</v>
@@ -70933,7 +70993,7 @@
     </row>
     <row r="852" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A852" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B852" s="35">
         <v>32302</v>
@@ -70951,7 +71011,7 @@
     </row>
     <row r="853" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A853" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B853" s="35">
         <v>32307</v>
@@ -70967,7 +71027,7 @@
     </row>
     <row r="854" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A854" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B854" s="35">
         <v>32370</v>
@@ -70987,10 +71047,13 @@
     </row>
     <row r="855" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A855" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B855" s="35">
         <v>32420</v>
+      </c>
+      <c r="G855" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L855" s="9">
         <v>10</v>
@@ -71007,7 +71070,7 @@
     </row>
     <row r="856" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A856" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B856" s="35">
         <v>32282</v>
@@ -71023,7 +71086,7 @@
     </row>
     <row r="857" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A857" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B857" s="35">
         <v>32307</v>
@@ -71039,7 +71102,7 @@
     </row>
     <row r="858" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A858" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B858" s="35">
         <v>32365</v>
@@ -71057,7 +71120,7 @@
     </row>
     <row r="859" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A859" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B859" s="35">
         <v>32366</v>
@@ -71073,10 +71136,13 @@
     </row>
     <row r="860" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A860" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B860" s="35">
         <v>32420</v>
+      </c>
+      <c r="G860" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L860" s="9">
         <v>10</v>
@@ -71093,7 +71159,7 @@
     </row>
     <row r="861" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A861" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B861" s="35">
         <v>32311</v>
@@ -71109,7 +71175,7 @@
     </row>
     <row r="862" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A862" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B862" s="35">
         <v>32341</v>
@@ -71125,7 +71191,7 @@
     </row>
     <row r="863" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A863" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B863" s="35">
         <v>32394</v>
@@ -71141,7 +71207,7 @@
     </row>
     <row r="864" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A864" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B864" s="35">
         <v>32407</v>
@@ -71159,10 +71225,13 @@
     </row>
     <row r="865" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A865" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B865" s="35">
         <v>32434</v>
+      </c>
+      <c r="G865" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L865" s="9">
         <v>10</v>
@@ -71179,7 +71248,7 @@
     </row>
     <row r="866" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A866" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B866" s="35">
         <v>32311</v>
@@ -71195,7 +71264,7 @@
     </row>
     <row r="867" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A867" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B867" s="35">
         <v>32341</v>
@@ -71211,7 +71280,7 @@
     </row>
     <row r="868" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A868" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B868" s="35">
         <v>32343</v>
@@ -71229,7 +71298,7 @@
     </row>
     <row r="869" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A869" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B869" s="35">
         <v>32394</v>
@@ -71245,7 +71314,7 @@
     </row>
     <row r="870" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A870" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B870" s="35">
         <v>32407</v>
@@ -71263,10 +71332,13 @@
     </row>
     <row r="871" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A871" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B871" s="35">
         <v>32434</v>
+      </c>
+      <c r="G871" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L871" s="9">
         <v>10</v>
@@ -71283,7 +71355,7 @@
     </row>
     <row r="872" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A872" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B872" s="35">
         <v>32311</v>
@@ -71299,7 +71371,7 @@
     </row>
     <row r="873" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A873" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B873" s="35">
         <v>32341</v>
@@ -71315,7 +71387,7 @@
     </row>
     <row r="874" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A874" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B874" s="35">
         <v>32394</v>
@@ -71331,7 +71403,7 @@
     </row>
     <row r="875" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A875" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B875" s="35">
         <v>32407</v>
@@ -71349,10 +71421,13 @@
     </row>
     <row r="876" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A876" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B876" s="35">
         <v>32434</v>
+      </c>
+      <c r="G876" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="L876" s="9">
         <v>10</v>
@@ -71369,7 +71444,7 @@
     </row>
     <row r="877" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A877" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B877" s="30">
         <v>33414</v>
@@ -71411,7 +71486,7 @@
     </row>
     <row r="878" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A878" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B878" s="30">
         <v>33442</v>
@@ -71453,7 +71528,7 @@
     </row>
     <row r="879" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A879" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B879" s="30">
         <v>33457</v>
@@ -71495,7 +71570,7 @@
     </row>
     <row r="880" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A880" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B880" s="30">
         <v>33472</v>
@@ -71537,7 +71612,7 @@
     </row>
     <row r="881" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A881" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B881" s="30">
         <v>33485</v>
@@ -71579,7 +71654,7 @@
     </row>
     <row r="882" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A882" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B882" s="30">
         <v>33505</v>
@@ -71621,7 +71696,7 @@
     </row>
     <row r="883" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A883" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B883" s="30">
         <v>33512</v>
@@ -71663,7 +71738,7 @@
     </row>
     <row r="884" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A884" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B884" s="30">
         <v>33518</v>
@@ -71705,7 +71780,7 @@
     </row>
     <row r="885" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A885" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B885" s="30">
         <v>33525</v>
@@ -71747,7 +71822,7 @@
     </row>
     <row r="886" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A886" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B886" s="30">
         <v>33539</v>
@@ -71789,7 +71864,7 @@
     </row>
     <row r="887" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A887" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B887" s="30">
         <v>33549</v>
@@ -71831,7 +71906,7 @@
     </row>
     <row r="888" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A888" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B888" s="30">
         <v>33414</v>
@@ -71873,7 +71948,7 @@
     </row>
     <row r="889" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A889" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B889" s="30">
         <v>33442</v>
@@ -71915,7 +71990,7 @@
     </row>
     <row r="890" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A890" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B890" s="30">
         <v>33457</v>
@@ -71957,7 +72032,7 @@
     </row>
     <row r="891" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A891" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B891" s="30">
         <v>33472</v>
@@ -71999,7 +72074,7 @@
     </row>
     <row r="892" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A892" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B892" s="30">
         <v>33485</v>
@@ -72041,7 +72116,7 @@
     </row>
     <row r="893" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A893" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B893" s="30">
         <v>33505</v>
@@ -72083,7 +72158,7 @@
     </row>
     <row r="894" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A894" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B894" s="30">
         <v>33512</v>
@@ -72125,7 +72200,7 @@
     </row>
     <row r="895" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A895" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B895" s="30">
         <v>33518</v>
@@ -72167,7 +72242,7 @@
     </row>
     <row r="896" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A896" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B896" s="30">
         <v>33525</v>
@@ -72209,7 +72284,7 @@
     </row>
     <row r="897" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A897" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B897" s="30">
         <v>33539</v>
@@ -72251,7 +72326,7 @@
     </row>
     <row r="898" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A898" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B898" s="30">
         <v>33549</v>
@@ -72293,7 +72368,7 @@
     </row>
     <row r="899" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A899" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B899" s="30">
         <v>33553</v>
@@ -72335,7 +72410,7 @@
     </row>
     <row r="900" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A900" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B900" s="30">
         <v>33561</v>
@@ -72377,7 +72452,7 @@
     </row>
     <row r="901" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A901" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B901" s="30">
         <v>33414</v>
@@ -72419,7 +72494,7 @@
     </row>
     <row r="902" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A902" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B902" s="30">
         <v>33442</v>
@@ -72461,7 +72536,7 @@
     </row>
     <row r="903" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A903" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B903" s="30">
         <v>33457</v>
@@ -72503,7 +72578,7 @@
     </row>
     <row r="904" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A904" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B904" s="30">
         <v>33472</v>
@@ -72545,7 +72620,7 @@
     </row>
     <row r="905" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A905" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B905" s="30">
         <v>33485</v>
@@ -72587,7 +72662,7 @@
     </row>
     <row r="906" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A906" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B906" s="30">
         <v>33505</v>
@@ -72629,7 +72704,7 @@
     </row>
     <row r="907" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A907" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B907" s="30">
         <v>33512</v>
@@ -72671,7 +72746,7 @@
     </row>
     <row r="908" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A908" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B908" s="30">
         <v>33518</v>
@@ -72713,7 +72788,7 @@
     </row>
     <row r="909" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A909" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B909" s="30">
         <v>33525</v>
@@ -72755,7 +72830,7 @@
     </row>
     <row r="910" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A910" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B910" s="30">
         <v>33539</v>
@@ -72797,7 +72872,7 @@
     </row>
     <row r="911" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A911" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B911" s="30">
         <v>33549</v>
@@ -72839,7 +72914,7 @@
     </row>
     <row r="912" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A912" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B912" s="30">
         <v>33553</v>
@@ -72881,7 +72956,7 @@
     </row>
     <row r="913" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B913" s="10">
         <v>30987</v>
@@ -72921,7 +72996,7 @@
     </row>
     <row r="914" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B914" s="10">
         <v>30987</v>
@@ -72961,7 +73036,7 @@
     </row>
     <row r="915" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B915" s="10">
         <v>30987</v>
@@ -73001,7 +73076,7 @@
     </row>
     <row r="916" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B916" s="10">
         <v>30987</v>
@@ -73041,7 +73116,7 @@
     </row>
     <row r="917" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B917" s="10">
         <v>30987</v>
@@ -73452,6 +73527,7 @@
       <c r="AJ948" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B917"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -73476,25 +73552,25 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>132</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -73511,7 +73587,7 @@
         <v>32221</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="32">
         <v>3</v>
@@ -73534,7 +73610,7 @@
         <v>32255</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="32">
         <v>5</v>
@@ -73557,7 +73633,7 @@
         <v>32303</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F4" s="32">
         <v>4.4800000000000004</v>
@@ -73566,10 +73642,10 @@
         <v>20</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -73586,7 +73662,7 @@
         <v>32303</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="32">
         <v>582.78</v>
@@ -73595,7 +73671,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>102</v>
@@ -73633,7 +73709,7 @@
         <v>32308</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F6" s="32">
         <v>7</v>
@@ -73645,7 +73721,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -73672,7 +73748,7 @@
         <v>32387</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="32">
         <v>10</v>
@@ -73681,7 +73757,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -73708,7 +73784,7 @@
         <v>32387</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F8" s="32">
         <v>245.69</v>
@@ -73717,7 +73793,7 @@
         <v>27</v>
       </c>
       <c r="L8" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -73746,7 +73822,7 @@
         <v>32387</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="32">
         <v>0.26</v>
@@ -73755,7 +73831,7 @@
         <v>27</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -73782,7 +73858,7 @@
         <v>32311</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="32">
         <v>3</v>
@@ -73791,7 +73867,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M10" s="9">
         <v>245.69</v>
@@ -73824,7 +73900,7 @@
         <v>32341</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="32">
         <v>5</v>
@@ -73836,7 +73912,7 @@
         <v>171</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -73863,7 +73939,7 @@
         <v>32394</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="32">
         <v>7</v>
@@ -73872,7 +73948,7 @@
         <v>27</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -73903,7 +73979,7 @@
         <v>32407</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F13" s="32">
         <v>2.12</v>
@@ -73912,7 +73988,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -73941,7 +74017,7 @@
         <v>32407</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="32">
         <v>689.91</v>
@@ -73950,7 +74026,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M14" s="9">
         <v>204.78</v>
@@ -73983,7 +74059,7 @@
         <v>32434</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="32">
         <v>10</v>
@@ -73992,7 +74068,7 @@
         <v>27</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -74019,7 +74095,7 @@
         <v>32434</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="32">
         <v>227.72</v>
@@ -74031,7 +74107,7 @@
         <v>172</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -74058,7 +74134,7 @@
         <v>32434</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="32">
         <v>0.31</v>
@@ -74067,7 +74143,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -74094,7 +74170,7 @@
         <v>32434</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="32">
         <v>659.69</v>
@@ -74103,7 +74179,7 @@
         <v>16</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -74132,7 +74208,7 @@
         <v>32311</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="32">
         <v>3</v>
@@ -74141,7 +74217,7 @@
         <v>27</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M19" s="9">
         <v>157.18</v>
@@ -74174,7 +74250,7 @@
         <v>32341</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="32">
         <v>5</v>
@@ -74183,7 +74259,7 @@
         <v>27</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
@@ -74210,7 +74286,7 @@
         <v>32343</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="32">
         <v>0.56000000000000005</v>
@@ -74222,7 +74298,7 @@
         <v>173</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -74249,7 +74325,7 @@
         <v>32343</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="32">
         <v>33.32</v>
@@ -74258,7 +74334,7 @@
         <v>16</v>
       </c>
       <c r="L22" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
@@ -74285,7 +74361,7 @@
         <v>32394</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="32">
         <v>7</v>
@@ -74294,7 +74370,7 @@
         <v>27</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
@@ -74323,7 +74399,7 @@
         <v>32407</v>
       </c>
       <c r="E24" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F24" s="32">
         <v>1.99</v>
@@ -74332,7 +74408,7 @@
         <v>20</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
@@ -74359,7 +74435,7 @@
         <v>32407</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F25" s="32">
         <v>751.71</v>
@@ -74401,7 +74477,7 @@
         <v>32434</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="32">
         <v>10</v>
@@ -74413,7 +74489,7 @@
         <v>174</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
@@ -74440,7 +74516,7 @@
         <v>32434</v>
       </c>
       <c r="E27" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F27" s="32">
         <v>252.67</v>
@@ -74449,7 +74525,7 @@
         <v>27</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -74476,7 +74552,7 @@
         <v>32434</v>
       </c>
       <c r="E28" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F28" s="32">
         <v>0.31</v>
@@ -74485,7 +74561,7 @@
         <v>27</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -74514,7 +74590,7 @@
         <v>32434</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F29" s="32">
         <v>717.21</v>
@@ -74523,7 +74599,7 @@
         <v>16</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
@@ -74550,7 +74626,7 @@
         <v>32311</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F30" s="32">
         <v>3</v>
@@ -74559,7 +74635,7 @@
         <v>27</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -74588,7 +74664,7 @@
         <v>32341</v>
       </c>
       <c r="E31" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F31" s="32">
         <v>5</v>
@@ -74630,7 +74706,7 @@
         <v>32394</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="32">
         <v>7</v>
@@ -74642,7 +74718,7 @@
         <v>175</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
@@ -74669,7 +74745,7 @@
         <v>32407</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="32">
         <v>2.2999999999999998</v>
@@ -74678,7 +74754,7 @@
         <v>20</v>
       </c>
       <c r="L33" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
@@ -74705,7 +74781,7 @@
         <v>32407</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F34" s="32">
         <v>842.37</v>
@@ -74743,7 +74819,7 @@
         <v>32434</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="32">
         <v>10</v>
@@ -74752,7 +74828,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -74779,7 +74855,7 @@
         <v>32434</v>
       </c>
       <c r="E36" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F36" s="32">
         <v>228.57</v>
@@ -74821,7 +74897,7 @@
         <v>32434</v>
       </c>
       <c r="E37" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" s="32">
         <v>0.28999999999999998</v>
@@ -74833,7 +74909,7 @@
         <v>176</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -74860,7 +74936,7 @@
         <v>32434</v>
       </c>
       <c r="E38" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" s="32">
         <v>691.31</v>
@@ -74869,7 +74945,7 @@
         <v>16</v>
       </c>
       <c r="L38" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -74896,7 +74972,7 @@
         <v>32387</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F39" s="32">
         <v>785.43</v>
@@ -74905,7 +74981,7 @@
         <v>16</v>
       </c>
       <c r="L39" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -74934,7 +75010,7 @@
         <v>32221</v>
       </c>
       <c r="E40" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40" s="32">
         <v>3</v>
@@ -74943,7 +75019,7 @@
         <v>27</v>
       </c>
       <c r="L40" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -74970,7 +75046,7 @@
         <v>32255</v>
       </c>
       <c r="E41" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F41" s="32">
         <v>5</v>
@@ -74979,7 +75055,7 @@
         <v>27</v>
       </c>
       <c r="L41" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M41" s="9">
         <v>571.58000000000004</v>
@@ -75012,7 +75088,7 @@
         <v>32255</v>
       </c>
       <c r="E42" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F42" s="32">
         <v>0.77</v>
@@ -75024,7 +75100,7 @@
         <v>177</v>
       </c>
       <c r="L42" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -75051,7 +75127,7 @@
         <v>32255</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" s="32">
         <v>46.74</v>
@@ -75060,7 +75136,7 @@
         <v>16</v>
       </c>
       <c r="L43" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -75089,7 +75165,7 @@
         <v>32303</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" s="32">
         <v>3.97</v>
@@ -75098,7 +75174,7 @@
         <v>20</v>
       </c>
       <c r="L44" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -75125,7 +75201,7 @@
         <v>32303</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F45" s="32">
         <v>618.61</v>
@@ -75134,7 +75210,7 @@
         <v>16</v>
       </c>
       <c r="L45" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -75165,7 +75241,7 @@
         <v>32387</v>
       </c>
       <c r="E46" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" s="32">
         <v>10</v>
@@ -75174,7 +75250,7 @@
         <v>27</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M46" s="9">
         <v>442.72</v>
@@ -75207,7 +75283,7 @@
         <v>32387</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="32">
         <v>204.78</v>
@@ -75219,7 +75295,7 @@
         <v>178</v>
       </c>
       <c r="L47" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -75246,7 +75322,7 @@
         <v>32387</v>
       </c>
       <c r="E48" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F48" s="32">
         <v>0.23</v>
@@ -75255,7 +75331,7 @@
         <v>27</v>
       </c>
       <c r="L48" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -75282,7 +75358,7 @@
         <v>32387</v>
       </c>
       <c r="E49" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F49" s="32">
         <v>772.54</v>
@@ -75320,7 +75396,7 @@
         <v>32403</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F50" s="32">
         <v>7</v>
@@ -75329,7 +75405,7 @@
         <v>27</v>
       </c>
       <c r="L50" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -75356,7 +75432,7 @@
         <v>32221</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" s="32">
         <v>3</v>
@@ -75365,7 +75441,7 @@
         <v>27</v>
       </c>
       <c r="L51" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M51" s="9">
         <v>397.42</v>
@@ -75398,7 +75474,7 @@
         <v>32255</v>
       </c>
       <c r="E52" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="32">
         <v>5</v>
@@ -75410,7 +75486,7 @@
         <v>179</v>
       </c>
       <c r="L52" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -75437,7 +75513,7 @@
         <v>32303</v>
       </c>
       <c r="E53" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="32">
         <v>3.5</v>
@@ -75446,7 +75522,7 @@
         <v>20</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -75473,7 +75549,7 @@
         <v>32303</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F54" s="32">
         <v>618.09</v>
@@ -75482,7 +75558,7 @@
         <v>16</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -75509,7 +75585,7 @@
         <v>32387</v>
       </c>
       <c r="E55" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F55" s="32">
         <v>10</v>
@@ -75518,7 +75594,7 @@
         <v>27</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -75547,7 +75623,7 @@
         <v>32387</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F56" s="32">
         <v>157.18</v>
@@ -75589,7 +75665,7 @@
         <v>32387</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F57" s="32">
         <v>0.18</v>
@@ -75601,7 +75677,7 @@
         <v>180</v>
       </c>
       <c r="L57" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -75628,7 +75704,7 @@
         <v>32387</v>
       </c>
       <c r="E58" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F58" s="32">
         <v>756.23</v>
@@ -75637,7 +75713,7 @@
         <v>16</v>
       </c>
       <c r="L58" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -75664,7 +75740,7 @@
         <v>32402</v>
       </c>
       <c r="E59" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F59" s="32">
         <v>7</v>
@@ -75673,7 +75749,7 @@
         <v>27</v>
       </c>
       <c r="L59" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -75702,7 +75778,7 @@
         <v>32259</v>
       </c>
       <c r="E60" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60" s="32">
         <v>3</v>
@@ -75711,7 +75787,7 @@
         <v>27</v>
       </c>
       <c r="L60" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -75738,7 +75814,7 @@
         <v>32284</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" s="32">
         <v>5</v>
@@ -75747,7 +75823,7 @@
         <v>27</v>
       </c>
       <c r="L61" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -75776,7 +75852,7 @@
         <v>32343</v>
       </c>
       <c r="E62" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62" s="32">
         <v>4.26</v>
@@ -75818,7 +75894,7 @@
         <v>32343</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" s="32">
         <v>535.74</v>
@@ -75830,7 +75906,7 @@
         <v>181</v>
       </c>
       <c r="L63" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -75857,7 +75933,7 @@
         <v>32347</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" s="32">
         <v>7</v>
@@ -75866,7 +75942,7 @@
         <v>27</v>
       </c>
       <c r="L64" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -75893,7 +75969,7 @@
         <v>32406</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" s="32">
         <v>10</v>
@@ -75902,7 +75978,7 @@
         <v>27</v>
       </c>
       <c r="L65" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -75929,7 +76005,7 @@
         <v>32406</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F66" s="32">
         <v>370.29</v>
@@ -75938,7 +76014,7 @@
         <v>27</v>
       </c>
       <c r="L66" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -75967,7 +76043,7 @@
         <v>32406</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F67" s="32">
         <v>0.31</v>
@@ -76009,7 +76085,7 @@
         <v>32406</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F68" s="32">
         <v>1067.0899999999999</v>
@@ -76053,7 +76129,7 @@
         <v>32259</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F69" s="32">
         <v>3</v>
@@ -76076,7 +76152,7 @@
         <v>32284</v>
       </c>
       <c r="E70" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F70" s="32">
         <v>5</v>
@@ -76099,7 +76175,7 @@
         <v>32288</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F71" s="32">
         <v>1.33</v>
@@ -76122,7 +76198,7 @@
         <v>32288</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F72" s="32">
         <v>65.3</v>
@@ -76145,7 +76221,7 @@
         <v>32338</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F73" s="32">
         <v>7</v>
@@ -76168,7 +76244,7 @@
         <v>32343</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F74" s="32">
         <v>4.79</v>
@@ -76191,7 +76267,7 @@
         <v>32343</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F75" s="32">
         <v>659.02</v>
@@ -76214,7 +76290,7 @@
         <v>32406</v>
       </c>
       <c r="E76" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" s="32">
         <v>10</v>
@@ -76237,7 +76313,7 @@
         <v>32406</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F77" s="32">
         <v>300.70999999999998</v>
@@ -76260,7 +76336,7 @@
         <v>32406</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F78" s="32">
         <v>0.28000000000000003</v>
@@ -76283,7 +76359,7 @@
         <v>32406</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F79" s="32">
         <v>942.53</v>
@@ -76306,7 +76382,7 @@
         <v>32259</v>
       </c>
       <c r="E80" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F80" s="32">
         <v>3</v>
@@ -76329,7 +76405,7 @@
         <v>32284</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F81" s="32">
         <v>5</v>
@@ -76352,7 +76428,7 @@
         <v>32337</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" s="32">
         <v>5.07</v>
@@ -76375,7 +76451,7 @@
         <v>32337</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F83" s="32">
         <v>623.72</v>
@@ -76398,7 +76474,7 @@
         <v>32342</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F84" s="32">
         <v>7</v>
@@ -76421,7 +76497,7 @@
         <v>32406</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F85" s="32">
         <v>10</v>
@@ -76444,7 +76520,7 @@
         <v>32406</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F86" s="32">
         <v>248.48</v>
@@ -76467,7 +76543,7 @@
         <v>32406</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F87" s="32">
         <v>0.24</v>
@@ -76490,7 +76566,7 @@
         <v>32406</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F88" s="32">
         <v>891.64</v>
@@ -76513,7 +76589,7 @@
         <v>32282</v>
       </c>
       <c r="E89" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F89" s="32">
         <v>3</v>
@@ -76536,7 +76612,7 @@
         <v>32307</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F90" s="32">
         <v>5</v>
@@ -76559,7 +76635,7 @@
         <v>32370</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F91" s="32">
         <v>4.4800000000000004</v>
@@ -76582,7 +76658,7 @@
         <v>32370</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F92" s="32">
         <v>772.08</v>
@@ -76605,7 +76681,7 @@
         <v>32371</v>
       </c>
       <c r="E93" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F93" s="32">
         <v>7</v>
@@ -76628,7 +76704,7 @@
         <v>32420</v>
       </c>
       <c r="E94" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F94" s="32">
         <v>10</v>
@@ -76651,7 +76727,7 @@
         <v>32420</v>
       </c>
       <c r="E95" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F95" s="32">
         <v>571.58000000000004</v>
@@ -76674,7 +76750,7 @@
         <v>32420</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F96" s="32">
         <v>0.39</v>
@@ -76697,7 +76773,7 @@
         <v>32420</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F97" s="32">
         <v>1299.1600000000001</v>
@@ -76720,7 +76796,7 @@
         <v>32282</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F98" s="32">
         <v>3</v>
@@ -76743,7 +76819,7 @@
         <v>32302</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F99" s="32">
         <v>0.44</v>
@@ -76766,7 +76842,7 @@
         <v>32302</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F100" s="32">
         <v>21.65</v>
@@ -76789,7 +76865,7 @@
         <v>32307</v>
       </c>
       <c r="E101" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F101" s="32">
         <v>5</v>
@@ -76812,7 +76888,7 @@
         <v>32370</v>
       </c>
       <c r="E102" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F102" s="32">
         <v>7</v>
@@ -76835,7 +76911,7 @@
         <v>32370</v>
       </c>
       <c r="E103" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F103" s="32">
         <v>4.25</v>
@@ -76858,7 +76934,7 @@
         <v>32370</v>
       </c>
       <c r="E104" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F104" s="32">
         <v>813.64</v>
@@ -76881,7 +76957,7 @@
         <v>32420</v>
       </c>
       <c r="E105" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F105" s="32">
         <v>10</v>
@@ -76904,7 +76980,7 @@
         <v>32420</v>
       </c>
       <c r="E106" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F106" s="32">
         <v>442.72</v>
@@ -76927,7 +77003,7 @@
         <v>32420</v>
       </c>
       <c r="E107" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F107" s="32">
         <v>0.34</v>
@@ -76950,7 +77026,7 @@
         <v>32420</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F108" s="32">
         <v>1127.6400000000001</v>
@@ -76973,7 +77049,7 @@
         <v>32282</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F109" s="32">
         <v>3</v>
@@ -76996,7 +77072,7 @@
         <v>32307</v>
       </c>
       <c r="E110" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F110" s="32">
         <v>5</v>
@@ -77019,7 +77095,7 @@
         <v>32366</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F111" s="32">
         <v>7</v>
@@ -77042,7 +77118,7 @@
         <v>32420</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F112" s="32">
         <v>10</v>
@@ -77065,7 +77141,7 @@
         <v>32420</v>
       </c>
       <c r="E113" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F113" s="32">
         <v>397.42</v>
@@ -77088,7 +77164,7 @@
         <v>32420</v>
       </c>
       <c r="E114" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F114" s="32">
         <v>0.34</v>
@@ -77111,7 +77187,7 @@
         <v>32420</v>
       </c>
       <c r="E115" s="34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F115" s="32">
         <v>1036.28</v>
@@ -77134,7 +77210,7 @@
         <v>32365</v>
       </c>
       <c r="E116" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F116" s="32">
         <v>5.53</v>
@@ -77157,7 +77233,7 @@
         <v>32365</v>
       </c>
       <c r="E117" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F117" s="32">
         <v>880.58</v>
@@ -77192,25 +77268,25 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C1" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -77227,7 +77303,7 @@
         <v>32997</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="27">
         <v>3</v>
@@ -77250,7 +77326,7 @@
         <v>33169</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="27">
         <v>10</v>
@@ -77273,7 +77349,7 @@
         <v>33169</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F4" s="27">
         <v>551.9</v>
@@ -77296,7 +77372,7 @@
         <v>33169</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F5" s="27">
         <v>81.3</v>
@@ -77319,7 +77395,7 @@
         <v>33169</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F6" s="27">
         <v>516.4</v>
@@ -77342,7 +77418,7 @@
         <v>33169</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" s="27">
         <v>0.32</v>
@@ -77351,10 +77427,10 @@
         <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
@@ -77371,7 +77447,7 @@
         <v>33169</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F8" s="27">
         <v>1604</v>
@@ -77380,7 +77456,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>102</v>
@@ -77436,7 +77512,7 @@
         <v>33003</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="27">
         <v>0</v>
@@ -77448,7 +77524,7 @@
         <v>97</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -77481,7 +77557,7 @@
         <v>33003</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F10" s="27">
         <v>2.31</v>
@@ -77490,7 +77566,7 @@
         <v>27</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M10" s="9">
         <v>2.31</v>
@@ -77535,7 +77611,7 @@
         <v>33003</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="27">
         <v>0.06</v>
@@ -77544,7 +77620,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M11" s="9">
         <v>6.56</v>
@@ -77591,7 +77667,7 @@
         <v>33003</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F12" s="27">
         <v>113.4</v>
@@ -77600,7 +77676,7 @@
         <v>29</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M12" s="9">
         <v>10.56</v>
@@ -77645,7 +77721,7 @@
         <v>33003</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="27">
         <v>101.2</v>
@@ -77654,7 +77730,7 @@
         <v>29</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M13" s="9">
         <v>35.06</v>
@@ -77699,7 +77775,7 @@
         <v>33003</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F14" s="27">
         <v>305.7</v>
@@ -77708,7 +77784,7 @@
         <v>27</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -77749,7 +77825,7 @@
         <v>33003</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="27">
         <v>2.7</v>
@@ -77758,7 +77834,7 @@
         <v>16</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M15" s="9">
         <v>96.55</v>
@@ -77795,7 +77871,7 @@
         <v>33010</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" s="27">
         <v>5</v>
@@ -77804,7 +77880,7 @@
         <v>27</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -77847,7 +77923,7 @@
         <v>33010</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="27">
         <v>1.4375</v>
@@ -77856,7 +77932,7 @@
         <v>27</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -77899,7 +77975,7 @@
         <v>33010</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="27">
         <v>6.56</v>
@@ -77908,7 +77984,7 @@
         <v>27</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -77951,7 +78027,7 @@
         <v>33010</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="27">
         <v>0.24</v>
@@ -77996,7 +78072,7 @@
         <v>33010</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="27">
         <v>167.8</v>
@@ -78005,7 +78081,7 @@
         <v>29</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M20" s="9">
         <v>2.69</v>
@@ -78046,7 +78122,7 @@
         <v>33010</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="27">
         <v>80.8</v>
@@ -78055,7 +78131,7 @@
         <v>29</v>
       </c>
       <c r="L21" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M21" s="9">
         <v>7.25</v>
@@ -78100,7 +78176,7 @@
         <v>33010</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="27">
         <v>356.6</v>
@@ -78142,7 +78218,7 @@
         <v>33010</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F23" s="27">
         <v>8.8000000000000007</v>
@@ -78151,7 +78227,7 @@
         <v>16</v>
       </c>
       <c r="L23" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M23" s="9">
         <v>28.81</v>
@@ -78196,7 +78272,7 @@
         <v>33017</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F24" s="27">
         <v>3.1875</v>
@@ -78205,7 +78281,7 @@
         <v>27</v>
       </c>
       <c r="L24" s="30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M24" s="9">
         <v>67.69</v>
@@ -78250,7 +78326,7 @@
         <v>33017</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F25" s="27">
         <v>10.56</v>
@@ -78259,7 +78335,7 @@
         <v>27</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M25" s="9">
         <v>93.03</v>
@@ -78306,7 +78382,7 @@
         <v>33017</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F26" s="27">
         <v>0.52</v>
@@ -78315,7 +78391,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M26" s="9">
         <v>102.46</v>
@@ -78364,7 +78440,7 @@
         <v>33017</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="27">
         <v>306.3</v>
@@ -78373,7 +78449,7 @@
         <v>29</v>
       </c>
       <c r="L27" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
@@ -78414,7 +78490,7 @@
         <v>33017</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" s="27">
         <v>76.599999999999994</v>
@@ -78426,7 +78502,7 @@
         <v>129</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
@@ -78459,7 +78535,7 @@
         <v>33017</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F29" s="27">
         <v>299.7</v>
@@ -78468,7 +78544,7 @@
         <v>27</v>
       </c>
       <c r="L29" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M29" s="9">
         <v>4.6900000000000004</v>
@@ -78513,7 +78589,7 @@
         <v>33017</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F30" s="27">
         <v>23</v>
@@ -78522,7 +78598,7 @@
         <v>16</v>
       </c>
       <c r="L30" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
@@ -78555,7 +78631,7 @@
         <v>33038</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" s="27">
         <v>9.125</v>
@@ -78564,7 +78640,7 @@
         <v>27</v>
       </c>
       <c r="L31" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M31" s="9">
         <v>16.754999999999999</v>
@@ -78609,7 +78685,7 @@
         <v>33038</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F32" s="27">
         <v>35.06</v>
@@ -78618,7 +78694,7 @@
         <v>27</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M32" s="9">
         <v>56.37</v>
@@ -78663,7 +78739,7 @@
         <v>33038</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F33" s="27">
         <v>2.39</v>
@@ -78721,7 +78797,7 @@
         <v>33038</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F34" s="27">
         <v>564.70000000000005</v>
@@ -78730,7 +78806,7 @@
         <v>29</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M34" s="9">
         <v>77.349999999999994</v>
@@ -78779,7 +78855,7 @@
         <v>33038</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="27">
         <v>83</v>
@@ -78788,7 +78864,7 @@
         <v>29</v>
       </c>
       <c r="L35" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -78831,7 +78907,7 @@
         <v>33038</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F36" s="27">
         <v>302.2</v>
@@ -78840,7 +78916,7 @@
         <v>27</v>
       </c>
       <c r="L36" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -78881,7 +78957,7 @@
         <v>33038</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F37" s="27">
         <v>118.2</v>
@@ -78943,7 +79019,7 @@
         <v>33052</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="27">
         <v>6.7</v>
@@ -78966,7 +79042,7 @@
         <v>33052</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="27">
         <v>779.9</v>
@@ -78989,7 +79065,7 @@
         <v>33052</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F40" s="27">
         <v>89.3</v>
@@ -79012,7 +79088,7 @@
         <v>33052</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F41" s="27">
         <v>345.8</v>
@@ -79035,7 +79111,7 @@
         <v>33052</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F42" s="27">
         <v>342.9</v>
@@ -79058,7 +79134,7 @@
         <v>33105</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F43" s="27">
         <v>7</v>
@@ -79081,7 +79157,7 @@
         <v>33105</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" s="27">
         <v>9.5625</v>
@@ -79104,7 +79180,7 @@
         <v>33105</v>
       </c>
       <c r="E45" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="27">
         <v>96.55</v>
@@ -79127,7 +79203,7 @@
         <v>33107</v>
       </c>
       <c r="E46" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F46" s="27">
         <v>5.0199999999999996</v>
@@ -79150,7 +79226,7 @@
         <v>33107</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F47" s="27">
         <v>740.9</v>
@@ -79173,7 +79249,7 @@
         <v>33107</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F48" s="27">
         <v>537.29999999999995</v>
@@ -79196,7 +79272,7 @@
         <v>33107</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F49" s="27">
         <v>99.8</v>
@@ -79219,7 +79295,7 @@
         <v>33107</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F50" s="27">
         <v>294.60000000000002</v>
@@ -79242,7 +79318,7 @@
         <v>33107</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51" s="27">
         <v>1130</v>
@@ -79265,7 +79341,7 @@
         <v>33140</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F52" s="27">
         <v>1.85</v>
@@ -79288,7 +79364,7 @@
         <v>33140</v>
       </c>
       <c r="E53" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F53" s="27">
         <v>631.5</v>
@@ -79311,7 +79387,7 @@
         <v>33140</v>
       </c>
       <c r="E54" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F54" s="27">
         <v>621.5</v>
@@ -79334,7 +79410,7 @@
         <v>33140</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F55" s="27">
         <v>74.5</v>
@@ -79357,7 +79433,7 @@
         <v>33140</v>
       </c>
       <c r="E56" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F56" s="27">
         <v>245.7</v>
@@ -79380,7 +79456,7 @@
         <v>33140</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F57" s="27">
         <v>1785</v>
@@ -79403,7 +79479,7 @@
         <v>33040</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F58" s="27">
         <v>3</v>
@@ -79426,7 +79502,7 @@
         <v>33050</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F59" s="27">
         <v>0</v>
@@ -79449,7 +79525,7 @@
         <v>33050</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" s="27">
         <v>2.69</v>
@@ -79472,7 +79548,7 @@
         <v>33050</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F61" s="27">
         <v>7.0000000000000007E-2</v>
@@ -79495,7 +79571,7 @@
         <v>33050</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" s="27">
         <v>100.5</v>
@@ -79518,7 +79594,7 @@
         <v>33050</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="27">
         <v>291.10000000000002</v>
@@ -79541,7 +79617,7 @@
         <v>33063</v>
       </c>
       <c r="E64" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" s="27">
         <v>1.75</v>
@@ -79564,7 +79640,7 @@
         <v>33063</v>
       </c>
       <c r="E65" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="27">
         <v>7.25</v>
@@ -79587,7 +79663,7 @@
         <v>33063</v>
       </c>
       <c r="E66" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" s="27">
         <v>0.16</v>
@@ -79610,7 +79686,7 @@
         <v>33063</v>
       </c>
       <c r="E67" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="27">
         <v>198.2</v>
@@ -79633,7 +79709,7 @@
         <v>33063</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68" s="27">
         <v>116</v>
@@ -79656,7 +79732,7 @@
         <v>33063</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F69" s="27">
         <v>201</v>
@@ -79679,7 +79755,7 @@
         <v>33063</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" s="27">
         <v>11.2</v>
@@ -79702,7 +79778,7 @@
         <v>33067</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F71" s="27">
         <v>5</v>
@@ -79725,7 +79801,7 @@
         <v>33078</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F72" s="27">
         <v>8.56</v>
@@ -79748,7 +79824,7 @@
         <v>33078</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F73" s="27">
         <v>28.81</v>
@@ -79771,7 +79847,7 @@
         <v>33078</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F74" s="27">
         <v>1.03</v>
@@ -79794,7 +79870,7 @@
         <v>33078</v>
       </c>
       <c r="E75" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F75" s="27">
         <v>634.4</v>
@@ -79817,7 +79893,7 @@
         <v>33078</v>
       </c>
       <c r="E76" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F76" s="27">
         <v>96.3</v>
@@ -79840,7 +79916,7 @@
         <v>33078</v>
       </c>
       <c r="E77" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F77" s="27">
         <v>269.7</v>
@@ -79863,7 +79939,7 @@
         <v>33078</v>
       </c>
       <c r="E78" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F78" s="27">
         <v>51.1</v>
@@ -79886,7 +79962,7 @@
         <v>33105</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F79" s="27">
         <v>12.56</v>
@@ -79909,7 +79985,7 @@
         <v>33105</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F80" s="27">
         <v>67.69</v>
@@ -79932,7 +80008,7 @@
         <v>33105</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F81" s="27">
         <v>5.23</v>
@@ -79955,7 +80031,7 @@
         <v>33105</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F82" s="27">
         <v>860</v>
@@ -79978,7 +80054,7 @@
         <v>33105</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F83" s="27">
         <v>88.6</v>
@@ -80001,7 +80077,7 @@
         <v>33105</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F84" s="27">
         <v>272.8</v>
@@ -80024,7 +80100,7 @@
         <v>33105</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F85" s="27">
         <v>342.1</v>
@@ -80047,7 +80123,7 @@
         <v>33126</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F86" s="27">
         <v>6</v>
@@ -80070,7 +80146,7 @@
         <v>33126</v>
       </c>
       <c r="E87" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F87" s="27">
         <v>10.69</v>
@@ -80093,7 +80169,7 @@
         <v>33126</v>
       </c>
       <c r="E88" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F88" s="27">
         <v>93.03</v>
@@ -80116,7 +80192,7 @@
         <v>33126</v>
       </c>
       <c r="E89" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F89" s="27">
         <v>9.08</v>
@@ -80139,7 +80215,7 @@
         <v>33126</v>
       </c>
       <c r="E90" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F90" s="27">
         <v>878.3</v>
@@ -80162,7 +80238,7 @@
         <v>33126</v>
       </c>
       <c r="E91" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F91" s="27">
         <v>87.9</v>
@@ -80185,7 +80261,7 @@
         <v>33126</v>
       </c>
       <c r="E92" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F92" s="27">
         <v>326.39999999999998</v>
@@ -80208,7 +80284,7 @@
         <v>33126</v>
       </c>
       <c r="E93" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" s="27">
         <v>811.2</v>
@@ -80231,7 +80307,7 @@
         <v>33140</v>
       </c>
       <c r="E94" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F94" s="27">
         <v>7</v>
@@ -80254,7 +80330,7 @@
         <v>33140</v>
       </c>
       <c r="E95" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F95" s="27">
         <v>10.94</v>
@@ -80277,7 +80353,7 @@
         <v>33140</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F96" s="27">
         <v>102.46</v>
@@ -80300,7 +80376,7 @@
         <v>33140</v>
       </c>
       <c r="E97" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F97" s="27">
         <v>6.64</v>
@@ -80323,7 +80399,7 @@
         <v>33140</v>
       </c>
       <c r="E98" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F98" s="27">
         <v>707.5</v>
@@ -80346,7 +80422,7 @@
         <v>33140</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F99" s="27">
         <v>754.3</v>
@@ -80369,7 +80445,7 @@
         <v>33140</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F100" s="27">
         <v>82.3</v>
@@ -80392,7 +80468,7 @@
         <v>33140</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F101" s="27">
         <v>353</v>
@@ -80415,7 +80491,7 @@
         <v>33140</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F102" s="27">
         <v>1165</v>
@@ -80438,7 +80514,7 @@
         <v>33191</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F103" s="27">
         <v>10</v>
@@ -80461,7 +80537,7 @@
         <v>33191</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F104" s="27">
         <v>78.5</v>
@@ -80484,7 +80560,7 @@
         <v>33191</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F105" s="27">
         <v>511</v>
@@ -80507,7 +80583,7 @@
         <v>33191</v>
       </c>
       <c r="E106" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F106" s="27">
         <v>0.33</v>
@@ -80530,7 +80606,7 @@
         <v>33191</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F107" s="27">
         <v>1533</v>
@@ -80553,7 +80629,7 @@
         <v>33106</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F108" s="27">
         <v>3</v>
@@ -80576,7 +80652,7 @@
         <v>33119</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F109" s="27">
         <v>0.81</v>
@@ -80599,7 +80675,7 @@
         <v>33119</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F110" s="27">
         <v>4.6900000000000004</v>
@@ -80622,7 +80698,7 @@
         <v>33119</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F111" s="27">
         <v>7.0000000000000007E-2</v>
@@ -80645,7 +80721,7 @@
         <v>33119</v>
       </c>
       <c r="E112" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F112" s="27">
         <v>100.4</v>
@@ -80668,7 +80744,7 @@
         <v>33119</v>
       </c>
       <c r="E113" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F113" s="27">
         <v>72.400000000000006</v>
@@ -80691,7 +80767,7 @@
         <v>33119</v>
       </c>
       <c r="E114" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F114" s="27">
         <v>249.3</v>
@@ -80714,7 +80790,7 @@
         <v>33119</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F115" s="27">
         <v>3.8</v>
@@ -80737,7 +80813,7 @@
         <v>33124</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F116" s="27">
         <v>5</v>
@@ -80760,7 +80836,7 @@
         <v>33132</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F117" s="27">
         <v>5.31</v>
@@ -80783,7 +80859,7 @@
         <v>33132</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F118" s="27">
         <v>16.754999999999999</v>
@@ -80806,7 +80882,7 @@
         <v>33132</v>
       </c>
       <c r="E119" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F119" s="27">
         <v>0.43</v>
@@ -80829,7 +80905,7 @@
         <v>33132</v>
       </c>
       <c r="E120" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F120" s="27">
         <v>354.5</v>
@@ -80852,7 +80928,7 @@
         <v>33132</v>
       </c>
       <c r="E121" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F121" s="27">
         <v>65.400000000000006</v>
@@ -80875,7 +80951,7 @@
         <v>33132</v>
       </c>
       <c r="E122" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F122" s="27">
         <v>274.2</v>
@@ -80898,7 +80974,7 @@
         <v>33132</v>
       </c>
       <c r="E123" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F123" s="27">
         <v>20.5</v>
@@ -80921,7 +80997,7 @@
         <v>33154</v>
       </c>
       <c r="E124" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F124" s="27">
         <v>8.75</v>
@@ -80944,7 +81020,7 @@
         <v>33154</v>
       </c>
       <c r="E125" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F125" s="27">
         <v>56.37</v>
@@ -80967,7 +81043,7 @@
         <v>33154</v>
       </c>
       <c r="E126" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F126" s="27">
         <v>4.5599999999999996</v>
@@ -80990,7 +81066,7 @@
         <v>33154</v>
       </c>
       <c r="E127" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F127" s="27">
         <v>641.79999999999995</v>
@@ -81013,7 +81089,7 @@
         <v>33154</v>
       </c>
       <c r="E128" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F128" s="27">
         <v>93.5</v>
@@ -81036,7 +81112,7 @@
         <v>33154</v>
       </c>
       <c r="E129" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F129" s="27">
         <v>284.2</v>
@@ -81059,7 +81135,7 @@
         <v>33154</v>
       </c>
       <c r="E130" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F130" s="27">
         <v>333</v>
@@ -81082,7 +81158,7 @@
         <v>33164</v>
       </c>
       <c r="E131" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F131" s="27">
         <v>7</v>
@@ -81105,7 +81181,7 @@
         <v>33164</v>
       </c>
       <c r="E132" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F132" s="27">
         <v>9.1199999999999992</v>
@@ -81128,7 +81204,7 @@
         <v>33164</v>
       </c>
       <c r="E133" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F133" s="27">
         <v>70.23</v>
@@ -81151,7 +81227,7 @@
         <v>33164</v>
       </c>
       <c r="E134" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F134" s="27">
         <v>5.26</v>
@@ -81174,7 +81250,7 @@
         <v>33164</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F135" s="27">
         <v>550.5</v>
@@ -81197,7 +81273,7 @@
         <v>33164</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F136" s="27">
         <v>435.9</v>
@@ -81220,7 +81296,7 @@
         <v>33164</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F137" s="27">
         <v>73.8</v>
@@ -81243,7 +81319,7 @@
         <v>33164</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F138" s="27">
         <v>289.39999999999998</v>
@@ -81266,7 +81342,7 @@
         <v>33164</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F139" s="27">
         <v>577.6</v>
@@ -81289,7 +81365,7 @@
         <v>33182</v>
       </c>
       <c r="E140" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F140" s="27">
         <v>9</v>
@@ -81312,7 +81388,7 @@
         <v>33182</v>
       </c>
       <c r="E141" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F141" s="27">
         <v>9.69</v>
@@ -81335,7 +81411,7 @@
         <v>33182</v>
       </c>
       <c r="E142" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F142" s="27">
         <v>77.349999999999994</v>
@@ -81358,7 +81434,7 @@
         <v>33182</v>
       </c>
       <c r="E143" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F143" s="27">
         <v>4.18</v>
@@ -81381,7 +81457,7 @@
         <v>33182</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F144" s="27">
         <v>582.1</v>
@@ -81404,7 +81480,7 @@
         <v>33182</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F145" s="27">
         <v>509.7</v>
@@ -81427,7 +81503,7 @@
         <v>33182</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F146" s="27">
         <v>75.2</v>
@@ -81450,7 +81526,7 @@
         <v>33182</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F147" s="27">
         <v>279.5</v>
@@ -81473,7 +81549,7 @@
         <v>33182</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F148" s="27">
         <v>1097</v>
@@ -81496,7 +81572,7 @@
         <v>33202</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F149" s="27">
         <v>0.12</v>
@@ -81519,7 +81595,7 @@
         <v>33202</v>
       </c>
       <c r="E150" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F150" s="27">
         <v>681.9</v>
@@ -81542,7 +81618,7 @@
         <v>33202</v>
       </c>
       <c r="E151" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F151" s="27">
         <v>667.2</v>
@@ -81565,7 +81641,7 @@
         <v>33202</v>
       </c>
       <c r="E152" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F152" s="27">
         <v>82.3</v>
@@ -81588,7 +81664,7 @@
         <v>33202</v>
       </c>
       <c r="E153" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F153" s="27">
         <v>243.9</v>
@@ -81611,7 +81687,7 @@
         <v>33202</v>
       </c>
       <c r="E154" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F154" s="27">
         <v>1480</v>
@@ -81634,7 +81710,7 @@
         <v>33209</v>
       </c>
       <c r="E155" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F155" s="27">
         <v>10</v>
@@ -81657,7 +81733,7 @@
         <v>33209</v>
       </c>
       <c r="E156" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F156" s="27">
         <v>73</v>
@@ -81680,7 +81756,7 @@
         <v>33209</v>
       </c>
       <c r="E157" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F157" s="27">
         <v>620.5</v>
@@ -81703,7 +81779,7 @@
         <v>33209</v>
       </c>
       <c r="E158" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F158" s="27">
         <v>0.49</v>
@@ -81726,7 +81802,7 @@
         <v>33209</v>
       </c>
       <c r="E159" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F159" s="27">
         <v>1271</v>
@@ -82139,25 +82215,25 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="D1" s="19" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -82174,7 +82250,7 @@
         <v>34281</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="20">
         <v>0.05</v>
@@ -82197,7 +82273,7 @@
         <v>34288</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="20">
         <v>0.1</v>
@@ -82220,7 +82296,7 @@
         <v>34289</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="20">
         <v>0</v>
@@ -82229,10 +82305,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -82249,7 +82325,7 @@
         <v>34295</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="20">
         <v>0.15</v>
@@ -82258,7 +82334,7 @@
         <v>27</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5">
         <v>89</v>
@@ -82293,7 +82369,7 @@
         <v>34295</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="20">
         <v>1785</v>
@@ -82302,7 +82378,7 @@
         <v>16</v>
       </c>
       <c r="J6" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -82329,7 +82405,7 @@
         <v>34302</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F7" s="20">
         <v>0.26</v>
@@ -82338,7 +82414,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -82365,7 +82441,7 @@
         <v>34309</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F8" s="20">
         <v>0.3</v>
@@ -82374,7 +82450,7 @@
         <v>27</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -82401,7 +82477,7 @@
         <v>34316</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="20">
         <v>0.34</v>
@@ -82410,7 +82486,7 @@
         <v>27</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -82437,7 +82513,7 @@
         <v>34324</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="20">
         <v>10</v>
@@ -82446,7 +82522,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -82473,7 +82549,7 @@
         <v>34324</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="20">
         <v>516.4</v>
@@ -82482,7 +82558,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -82509,7 +82585,7 @@
         <v>34324</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="20">
         <v>0.35</v>
@@ -82518,7 +82594,7 @@
         <v>27</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -82547,7 +82623,7 @@
         <v>34324</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="20">
         <v>1605</v>
@@ -82583,7 +82659,7 @@
         <v>34155</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="20">
         <v>3</v>
@@ -82592,7 +82668,7 @@
         <v>27</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -82619,7 +82695,7 @@
         <v>34158</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="20">
         <v>2.7</v>
@@ -82628,7 +82704,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -82655,7 +82731,7 @@
         <v>34165</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" s="20">
         <v>8.8000000000000007</v>
@@ -82664,7 +82740,7 @@
         <v>16</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -82691,7 +82767,7 @@
         <v>34169</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F17" s="20">
         <v>0.13</v>
@@ -82700,7 +82776,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -82727,7 +82803,7 @@
         <v>34172</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="20">
         <v>23</v>
@@ -82736,7 +82812,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -82763,7 +82839,7 @@
         <v>34174</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F19" s="20">
         <v>5</v>
@@ -82799,7 +82875,7 @@
         <v>34193</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F20" s="20">
         <v>1.8</v>
@@ -82835,7 +82911,7 @@
         <v>34193</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="20">
         <v>118.2</v>
@@ -82844,7 +82920,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -82871,7 +82947,7 @@
         <v>34207</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="20">
         <v>342.9</v>
@@ -82907,7 +82983,7 @@
         <v>34214</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="20">
         <v>8.32</v>
@@ -82916,7 +82992,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9">
@@ -82943,7 +83019,7 @@
         <v>34243</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="20">
         <v>7</v>
@@ -82952,7 +83028,7 @@
         <v>27</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -82979,7 +83055,7 @@
         <v>34248</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="20">
         <v>5.46</v>
@@ -82988,7 +83064,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9">
@@ -83017,7 +83093,7 @@
         <v>34261</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="20">
         <v>2.4900000000000002</v>
@@ -83026,7 +83102,7 @@
         <v>20</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9">
@@ -83053,7 +83129,7 @@
         <v>34262</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F27" s="20">
         <v>1113</v>
@@ -83062,7 +83138,7 @@
         <v>16</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9">
@@ -83089,7 +83165,7 @@
         <v>34267</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F28" s="20">
         <v>0.01</v>
@@ -83098,7 +83174,7 @@
         <v>27</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9">
@@ -83125,7 +83201,7 @@
         <v>34274</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="20">
         <v>0.02</v>
@@ -83134,7 +83210,7 @@
         <v>27</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K29" s="9">
         <v>516.4</v>
@@ -83167,7 +83243,7 @@
         <v>34275</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F30" s="20">
         <v>0.79</v>
